--- a/proy_formativo/documentacion/5to_Trim/Casos de prueba.xlsx
+++ b/proy_formativo/documentacion/5to_Trim/Casos de prueba.xlsx
@@ -9,14 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18750" windowHeight="7035"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18750" windowHeight="7035" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="CP1 GESTIÓN USUARIOS" sheetId="1" r:id="rId1"/>
     <sheet name="CP2 GESTIÓN VENTA" sheetId="3" r:id="rId2"/>
     <sheet name="CP3 GESTIÓN COMPRA" sheetId="4" r:id="rId3"/>
     <sheet name="CP4 GESTIÓN CAJA" sheetId="5" r:id="rId4"/>
-    <sheet name="CP5 GESTIÓN INFORMES " sheetId="6" r:id="rId5"/>
+    <sheet name="CP5 GESTIÓN INFORMES" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="84">
   <si>
     <t>FORMATO DE CASOS DE PRUEBAS</t>
   </si>
@@ -299,6 +299,71 @@
   <si>
     <t>Muestra un formulario ara agregar la nfrmación del producto.
 Notifica el estado del proceso (exitoso, fallido)</t>
+  </si>
+  <si>
+    <t>Gestión de informes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gestión informes </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Generar informes gráficos e impresos </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crear informe </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consultar informe  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Imprimir informe </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eliminar informe </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Se dirige al modulo de generar informes.
+2. Seleccione crear informe.
+3. Ingrese la información del informe
+4. Clic en crear </t>
+  </si>
+  <si>
+    <t>Carga un formulario ara crear el informe.
+Muestra el informe creado.
+Notifica el proceso</t>
+  </si>
+  <si>
+    <t>1. Ingresar al modulo de generar informes 
+2. Seleccionar la opción consultas
+3. Ingresar información del informe 
+4. Dar clic en consultar</t>
+  </si>
+  <si>
+    <t>Muestra la información completa del informe</t>
+  </si>
+  <si>
+    <t>1. Ingresar al modulo de generar informe 
+2. Seleccionar la opción eliminar
+3. Ingresar información del informe
+4. Dar clic  en eliminar
+5. Confirmar contraseña
+6. Confirmar la eliminación</t>
+  </si>
+  <si>
+    <t>Muestra a iinformación del informe
+Muestra un cuadro solicitando la contraseña del usuario.
+Muestra un mensaje para confirma la eliminación.
+Notifica al usuario el estado de la operación</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Ingresar al modulo de generar informes.
+2. Seleccionar la opción consultas
+3. Ingresar información del informe 
+4. Dar clic en consultar
+5 Clic en el botón imprimir </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Descarga el informe </t>
   </si>
 </sst>
 </file>
@@ -396,9 +461,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -427,6 +489,9 @@
       <alignment horizontal="left" vertical="center" indent="5"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -711,7 +776,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView topLeftCell="A9" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
@@ -731,195 +796,195 @@
     <row r="2" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
     </row>
     <row r="4" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="9" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="5" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="5" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="11" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="E10" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="13" t="s">
+      <c r="F10" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="13" t="s">
+      <c r="G10" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="H10" s="13" t="s">
+      <c r="H10" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="I10" s="13" t="s">
+      <c r="I10" s="12" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
-      <c r="B11" s="7">
+      <c r="B11" s="6">
         <v>1</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="8"/>
-      <c r="F11" s="9" t="s">
+      <c r="E11" s="7"/>
+      <c r="F11" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="G11" s="11" t="s">
+      <c r="G11" s="10" t="s">
         <v>21</v>
       </c>
       <c r="H11" s="3"/>
       <c r="I11" s="4"/>
     </row>
     <row r="12" spans="1:9" ht="195" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="7">
+      <c r="B12" s="6">
         <v>2</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="E12" s="8"/>
-      <c r="F12" s="9" t="s">
+      <c r="E12" s="7"/>
+      <c r="F12" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="G12" s="11" t="s">
+      <c r="G12" s="10" t="s">
         <v>40</v>
       </c>
       <c r="H12" s="3"/>
       <c r="I12" s="4"/>
     </row>
     <row r="13" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="B13" s="7">
+      <c r="B13" s="6">
         <v>3</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="8"/>
-      <c r="F13" s="9" t="s">
+      <c r="E13" s="7"/>
+      <c r="F13" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="G13" s="11" t="s">
+      <c r="G13" s="10" t="s">
         <v>27</v>
       </c>
       <c r="H13" s="3"/>
       <c r="I13" s="4"/>
     </row>
-    <row r="14" spans="1:9" ht="150" x14ac:dyDescent="0.25">
-      <c r="B14" s="7">
+    <row r="14" spans="1:9" ht="131.25" x14ac:dyDescent="0.25">
+      <c r="B14" s="6">
         <v>4</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D14" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="E14" s="8"/>
-      <c r="F14" s="9" t="s">
+      <c r="E14" s="7"/>
+      <c r="F14" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="G14" s="11" t="s">
+      <c r="G14" s="10" t="s">
         <v>31</v>
       </c>
       <c r="H14" s="3"/>
       <c r="I14" s="4"/>
     </row>
     <row r="15" spans="1:9" ht="112.5" x14ac:dyDescent="0.25">
-      <c r="B15" s="7">
+      <c r="B15" s="6">
         <v>5</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="D15" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="E15" s="8"/>
-      <c r="F15" s="9" t="s">
+      <c r="E15" s="7"/>
+      <c r="F15" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="G15" s="11" t="s">
+      <c r="G15" s="10" t="s">
         <v>33</v>
       </c>
       <c r="H15" s="3"/>
       <c r="I15" s="4"/>
     </row>
     <row r="16" spans="1:9" ht="222.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="7">
+      <c r="B16" s="6">
         <v>6</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="D16" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="E16" s="8"/>
-      <c r="F16" s="9" t="s">
+      <c r="E16" s="7"/>
+      <c r="F16" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="G16" s="11" t="s">
+      <c r="G16" s="10" t="s">
         <v>39</v>
       </c>
       <c r="H16" s="3"/>
@@ -938,8 +1003,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I16"/>
   <sheetViews>
-    <sheetView topLeftCell="B14" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView topLeftCell="B11" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12:G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -958,175 +1023,175 @@
     <row r="2" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
     </row>
     <row r="4" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="9" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="5" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="5" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="11" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="E10" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="13" t="s">
+      <c r="F10" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="13" t="s">
+      <c r="G10" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="H10" s="13" t="s">
+      <c r="H10" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="I10" s="13" t="s">
+      <c r="I10" s="12" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
-      <c r="B11" s="7">
+      <c r="B11" s="6">
         <v>1</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="E11" s="8"/>
-      <c r="F11" s="9" t="s">
+      <c r="E11" s="7"/>
+      <c r="F11" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="G11" s="11" t="s">
+      <c r="G11" s="10" t="s">
         <v>46</v>
       </c>
       <c r="H11" s="3"/>
       <c r="I11" s="4"/>
     </row>
     <row r="12" spans="1:9" ht="213" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="7">
+      <c r="B12" s="6">
         <v>2</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="E12" s="8"/>
-      <c r="F12" s="9" t="s">
+      <c r="E12" s="7"/>
+      <c r="F12" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="G12" s="11" t="s">
+      <c r="G12" s="10" t="s">
         <v>49</v>
       </c>
       <c r="H12" s="3"/>
       <c r="I12" s="4"/>
     </row>
     <row r="13" spans="1:9" ht="186.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="7">
+      <c r="B13" s="6">
         <v>3</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="E13" s="8"/>
-      <c r="F13" s="9" t="s">
+      <c r="E13" s="7"/>
+      <c r="F13" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="G13" s="11" t="s">
+      <c r="G13" s="10" t="s">
         <v>53</v>
       </c>
       <c r="H13" s="3"/>
       <c r="I13" s="4"/>
     </row>
     <row r="14" spans="1:9" ht="180.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="7">
+      <c r="B14" s="6">
         <v>4</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D14" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="E14" s="8"/>
-      <c r="F14" s="9" t="s">
+      <c r="E14" s="7"/>
+      <c r="F14" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="G14" s="11" t="s">
+      <c r="G14" s="10" t="s">
         <v>57</v>
       </c>
       <c r="H14" s="3"/>
       <c r="I14" s="4"/>
     </row>
     <row r="15" spans="1:9" ht="152.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="7">
+      <c r="B15" s="6">
         <v>5</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="D15" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="E15" s="8"/>
-      <c r="F15" s="9" t="s">
+      <c r="E15" s="7"/>
+      <c r="F15" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="G15" s="11" t="s">
+      <c r="G15" s="10" t="s">
         <v>60</v>
       </c>
       <c r="H15" s="3"/>
@@ -1146,7 +1211,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I16"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
+    <sheetView topLeftCell="C13" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
@@ -1166,139 +1231,139 @@
     <row r="2" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
     </row>
     <row r="4" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="5">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="9" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="5" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="5" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="11" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="E10" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="13" t="s">
+      <c r="F10" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="13" t="s">
+      <c r="G10" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="H10" s="13" t="s">
+      <c r="H10" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="I10" s="13" t="s">
+      <c r="I10" s="12" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
-      <c r="B11" s="7">
+      <c r="B11" s="6">
         <v>1</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="E11" s="8"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="11"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="10"/>
       <c r="H11" s="3"/>
       <c r="I11" s="4"/>
     </row>
     <row r="12" spans="1:9" ht="213" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="7">
+      <c r="B12" s="6">
         <v>2</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="E12" s="8"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="11"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="10"/>
       <c r="H12" s="3"/>
       <c r="I12" s="4"/>
     </row>
     <row r="13" spans="1:9" ht="186.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="7">
+      <c r="B13" s="6">
         <v>3</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="E13" s="8"/>
-      <c r="F13" s="9" t="s">
+      <c r="E13" s="7"/>
+      <c r="F13" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="G13" s="11" t="s">
+      <c r="G13" s="10" t="s">
         <v>68</v>
       </c>
       <c r="H13" s="3"/>
       <c r="I13" s="4"/>
     </row>
     <row r="14" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="14"/>
-      <c r="C14" s="15"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="14"/>
     </row>
     <row r="15" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="14"/>
-      <c r="C15" s="15"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="14"/>
     </row>
     <row r="16" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
@@ -1326,14 +1391,192 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A2:I16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="C13" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="7.85546875" customWidth="1"/>
+    <col min="2" max="2" width="22.5703125" customWidth="1"/>
+    <col min="3" max="3" width="41.5703125" customWidth="1"/>
+    <col min="4" max="4" width="78.42578125" customWidth="1"/>
+    <col min="5" max="5" width="28" customWidth="1"/>
+    <col min="6" max="6" width="44.7109375" customWidth="1"/>
+    <col min="7" max="7" width="38.28515625" customWidth="1"/>
+    <col min="8" max="8" width="33" customWidth="1"/>
+    <col min="9" max="9" width="32.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+    </row>
+    <row r="4" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C5" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C6" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C8" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="124.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="6">
+        <v>1</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="7"/>
+      <c r="F11" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="H11" s="3"/>
+      <c r="I11" s="4"/>
+    </row>
+    <row r="12" spans="1:9" ht="213" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="6">
+        <v>2</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="7"/>
+      <c r="F12" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="H12" s="3"/>
+      <c r="I12" s="4"/>
+    </row>
+    <row r="13" spans="1:9" ht="135" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="6">
+        <v>3</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="7"/>
+      <c r="F13" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="H13" s="3"/>
+      <c r="I13" s="4"/>
+    </row>
+    <row r="14" spans="1:9" ht="218.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="6">
+        <v>3</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="7"/>
+      <c r="F14" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="H14" s="3"/>
+      <c r="I14" s="4"/>
+    </row>
+    <row r="15" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="13"/>
+      <c r="C15" s="14"/>
+    </row>
+    <row r="16" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D2:G2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/proy_formativo/documentacion/5to_Trim/Casos de prueba.xlsx
+++ b/proy_formativo/documentacion/5to_Trim/Casos de prueba.xlsx
@@ -9,13 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18750" windowHeight="7035" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18750" windowHeight="7035" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="CP1 GESTIÓN USUARIOS" sheetId="1" r:id="rId1"/>
     <sheet name="CP2 GESTIÓN VENTA" sheetId="3" r:id="rId2"/>
     <sheet name="CP3 GESTIÓN COMPRA" sheetId="4" r:id="rId3"/>
-    <sheet name="CP4 GESTIÓN CAJA" sheetId="5" r:id="rId4"/>
+    <sheet name="CP4 GESTIÓN CAJA" sheetId="8" r:id="rId4"/>
     <sheet name="CP5 GESTIÓN INFORMES" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="84">
   <si>
     <t>FORMATO DE CASOS DE PRUEBAS</t>
   </si>
@@ -328,11 +328,6 @@
 4. Clic en crear </t>
   </si>
   <si>
-    <t>Carga un formulario ara crear el informe.
-Muestra el informe creado.
-Notifica el proceso</t>
-  </si>
-  <si>
     <t>1. Ingresar al modulo de generar informes 
 2. Seleccionar la opción consultas
 3. Ingresar información del informe 
@@ -363,7 +358,12 @@
 5 Clic en el botón imprimir </t>
   </si>
   <si>
-    <t xml:space="preserve">Descarga el informe </t>
+    <t>Carga un formulario para crear el informe.
+Muestra el informe creado.
+Notifica el proceso</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -489,6 +489,9 @@
       <alignment horizontal="left" vertical="center" indent="5"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -776,8 +779,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I16"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView topLeftCell="A12" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -796,12 +799,12 @@
     <row r="2" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
     </row>
     <row r="4" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" s="12" t="s">
@@ -1003,8 +1006,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I16"/>
   <sheetViews>
-    <sheetView topLeftCell="B11" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12:G12"/>
+    <sheetView topLeftCell="B1" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1023,12 +1026,12 @@
     <row r="2" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
     </row>
     <row r="4" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" s="12" t="s">
@@ -1231,12 +1234,12 @@
     <row r="2" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
     </row>
     <row r="4" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" s="12" t="s">
@@ -1377,24 +1380,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C13" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1413,12 +1402,180 @@
     <row r="2" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+    </row>
+    <row r="4" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C5" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C6" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C8" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="15">
+        <v>1</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="7"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="4"/>
+    </row>
+    <row r="12" spans="1:9" ht="213" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="15">
+        <v>2</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="7"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="4"/>
+    </row>
+    <row r="13" spans="1:9" ht="186.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="15">
+        <v>3</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="7"/>
+      <c r="F13" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="H13" s="3"/>
+      <c r="I13" s="4"/>
+    </row>
+    <row r="14" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="13"/>
+      <c r="C14" s="14"/>
+    </row>
+    <row r="15" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="13"/>
+      <c r="C15" s="14"/>
+    </row>
+    <row r="16" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D2:G2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:I16"/>
+  <sheetViews>
+    <sheetView topLeftCell="C10" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.85546875" customWidth="1"/>
+    <col min="2" max="2" width="22.5703125" customWidth="1"/>
+    <col min="3" max="3" width="41.5703125" customWidth="1"/>
+    <col min="4" max="4" width="78.42578125" customWidth="1"/>
+    <col min="5" max="5" width="28" customWidth="1"/>
+    <col min="6" max="6" width="44.7109375" customWidth="1"/>
+    <col min="7" max="7" width="38.28515625" customWidth="1"/>
+    <col min="8" max="8" width="33" customWidth="1"/>
+    <col min="9" max="9" width="32.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
     </row>
     <row r="4" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" s="12" t="s">
@@ -1502,7 +1659,7 @@
         <v>76</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="H11" s="3"/>
       <c r="I11" s="4"/>
@@ -1519,10 +1676,10 @@
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="G12" s="10" t="s">
         <v>78</v>
-      </c>
-      <c r="G12" s="10" t="s">
-        <v>79</v>
       </c>
       <c r="H12" s="3"/>
       <c r="I12" s="4"/>
@@ -1539,7 +1696,7 @@
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G13" s="10" t="s">
         <v>83</v>
@@ -1559,10 +1716,10 @@
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="G14" s="10" t="s">
         <v>80</v>
-      </c>
-      <c r="G14" s="10" t="s">
-        <v>81</v>
       </c>
       <c r="H14" s="3"/>
       <c r="I14" s="4"/>

--- a/proy_formativo/documentacion/5to_Trim/Casos de prueba.xlsx
+++ b/proy_formativo/documentacion/5to_Trim/Casos de prueba.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18750" windowHeight="7035" firstSheet="2" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18750" windowHeight="7035" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="CP1 GESTIÓN USUARIOS" sheetId="1" r:id="rId1"/>
@@ -779,7 +779,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I16"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
+    <sheetView topLeftCell="A14" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
@@ -1214,7 +1214,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I16"/>
   <sheetViews>
-    <sheetView topLeftCell="C13" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C13" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
@@ -1382,7 +1382,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C13" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>

--- a/proy_formativo/documentacion/5to_Trim/Casos de prueba.xlsx
+++ b/proy_formativo/documentacion/5to_Trim/Casos de prueba.xlsx
@@ -9,14 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18750" windowHeight="7035" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18750" windowHeight="7035" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="CP1 GESTIÓN USUARIOS" sheetId="1" r:id="rId1"/>
     <sheet name="CP2 GESTIÓN VENTA" sheetId="3" r:id="rId2"/>
     <sheet name="CP3 GESTIÓN COMPRA" sheetId="4" r:id="rId3"/>
-    <sheet name="CP4 GESTIÓN CAJA" sheetId="8" r:id="rId4"/>
-    <sheet name="CP5 GESTIÓN INFORMES" sheetId="7" r:id="rId5"/>
+    <sheet name="CP4 GESTIÓN INFORMES" sheetId="7" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="89">
   <si>
     <t>FORMATO DE CASOS DE PRUEBAS</t>
   </si>
@@ -290,17 +289,6 @@
     <t>Crear producto nuevo</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Ingresar al modulo de inventario
-2. Seleccionar la opción producto nuevo 
-3. Ingrese la información del producto (nombre, descripc´n, categoria, imagen, precio de compra, precio de venta)  
-4. Da clic en crear
-5 Confiirma   </t>
-  </si>
-  <si>
-    <t>Muestra un formulario ara agregar la nfrmación del producto.
-Notifica el estado del proceso (exitoso, fallido)</t>
-  </si>
-  <si>
     <t>Gestión de informes</t>
   </si>
   <si>
@@ -363,7 +351,41 @@
 Notifica el proceso</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Ingresar al modulo de comora
+2. Seleccionar la opción producto nuevo 
+3. Ingrese la información del producto (nombre, descripción, categoria, imagen, precio de compra, precio de venta)  
+4. Da clic en crear
+5 Confiirma   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Ingresa al modulo de compra
+2. Da clic en solicitar pedido 
+3. Ingrese la información necesaria para el pedido y el proveedor al que se lo solicitara
+4. Da clic en registro de compra </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Muestra el formulario de pedido
+Guarda la información del pedido quedando en el listado de compras
+Muestra la notificación de que el registro de compra fue satisfactorio </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Actualizar información en caso de que sea necesario
+2.Autorizar el pedido dando clic en solicitar pedido </t>
+  </si>
+  <si>
+    <t>El sistema confirmara que el pedido fue solicitado</t>
+  </si>
+  <si>
+    <t>Muestra un formulario ara agregar la información del producto.
+Guarda la información registrada 
+Notifica el estado del proceso (exitoso, fallido)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> El sistema muestra la información del informe solicitado
+Permite imprimir el informe </t>
   </si>
 </sst>
 </file>
@@ -449,7 +471,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -466,9 +488,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -489,9 +508,6 @@
       <alignment horizontal="left" vertical="center" indent="5"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -779,8 +795,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I16"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView topLeftCell="C15" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -799,15 +815,15 @@
     <row r="2" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
     </row>
     <row r="4" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="11" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="5">
@@ -815,15 +831,15 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="8" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="11" t="s">
         <v>3</v>
       </c>
       <c r="D6" s="5" t="s">
@@ -831,7 +847,7 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="11" t="s">
         <v>4</v>
       </c>
       <c r="D7" s="5" t="s">
@@ -839,36 +855,36 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="10" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="E10" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="12" t="s">
+      <c r="F10" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="12" t="s">
+      <c r="G10" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="H10" s="12" t="s">
+      <c r="H10" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I10" s="12" t="s">
+      <c r="I10" s="11" t="s">
         <v>8</v>
       </c>
     </row>
@@ -883,11 +899,13 @@
       <c r="D11" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="7"/>
-      <c r="F11" s="8" t="s">
+      <c r="E11" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="G11" s="10" t="s">
+      <c r="G11" s="9" t="s">
         <v>21</v>
       </c>
       <c r="H11" s="3"/>
@@ -900,14 +918,16 @@
       <c r="C12" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E12" s="7"/>
-      <c r="F12" s="8" t="s">
+      <c r="E12" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="G12" s="10" t="s">
+      <c r="G12" s="9" t="s">
         <v>40</v>
       </c>
       <c r="H12" s="3"/>
@@ -920,14 +940,16 @@
       <c r="C13" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="7"/>
-      <c r="F13" s="8" t="s">
+      <c r="E13" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="G13" s="10" t="s">
+      <c r="G13" s="9" t="s">
         <v>27</v>
       </c>
       <c r="H13" s="3"/>
@@ -940,14 +962,16 @@
       <c r="C14" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E14" s="7"/>
-      <c r="F14" s="8" t="s">
+      <c r="E14" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="G14" s="10" t="s">
+      <c r="G14" s="9" t="s">
         <v>31</v>
       </c>
       <c r="H14" s="3"/>
@@ -960,14 +984,16 @@
       <c r="C15" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E15" s="7"/>
-      <c r="F15" s="8" t="s">
+      <c r="E15" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="G15" s="10" t="s">
+      <c r="G15" s="9" t="s">
         <v>33</v>
       </c>
       <c r="H15" s="3"/>
@@ -980,14 +1006,16 @@
       <c r="C16" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="E16" s="7"/>
-      <c r="F16" s="8" t="s">
+      <c r="E16" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="G16" s="10" t="s">
+      <c r="G16" s="9" t="s">
         <v>39</v>
       </c>
       <c r="H16" s="3"/>
@@ -1007,7 +1035,7 @@
   <dimension ref="A2:I16"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="E11" sqref="E11:E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1026,15 +1054,15 @@
     <row r="2" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
     </row>
     <row r="4" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="11" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="5">
@@ -1042,15 +1070,15 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="8" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="11" t="s">
         <v>3</v>
       </c>
       <c r="D6" s="5" t="s">
@@ -1058,7 +1086,7 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="11" t="s">
         <v>4</v>
       </c>
       <c r="D7" s="5" t="s">
@@ -1066,36 +1094,36 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="10" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="E10" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="12" t="s">
+      <c r="F10" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="12" t="s">
+      <c r="G10" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="H10" s="12" t="s">
+      <c r="H10" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I10" s="12" t="s">
+      <c r="I10" s="11" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1107,14 +1135,16 @@
       <c r="C11" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="E11" s="7"/>
-      <c r="F11" s="8" t="s">
+      <c r="E11" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="G11" s="10" t="s">
+      <c r="G11" s="9" t="s">
         <v>46</v>
       </c>
       <c r="H11" s="3"/>
@@ -1127,14 +1157,16 @@
       <c r="C12" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="E12" s="7"/>
-      <c r="F12" s="8" t="s">
+      <c r="E12" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="G12" s="10" t="s">
+      <c r="G12" s="9" t="s">
         <v>49</v>
       </c>
       <c r="H12" s="3"/>
@@ -1147,14 +1179,16 @@
       <c r="C13" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="E13" s="7"/>
-      <c r="F13" s="8" t="s">
+      <c r="E13" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="G13" s="10" t="s">
+      <c r="G13" s="9" t="s">
         <v>53</v>
       </c>
       <c r="H13" s="3"/>
@@ -1167,14 +1201,16 @@
       <c r="C14" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="E14" s="7"/>
-      <c r="F14" s="8" t="s">
+      <c r="E14" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="G14" s="10" t="s">
+      <c r="G14" s="9" t="s">
         <v>57</v>
       </c>
       <c r="H14" s="3"/>
@@ -1187,14 +1223,16 @@
       <c r="C15" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="E15" s="7"/>
-      <c r="F15" s="8" t="s">
+      <c r="E15" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="G15" s="10" t="s">
+      <c r="G15" s="9" t="s">
         <v>60</v>
       </c>
       <c r="H15" s="3"/>
@@ -1214,8 +1252,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C13" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView topLeftCell="C8" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1234,15 +1272,15 @@
     <row r="2" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
     </row>
     <row r="4" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="11" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="5">
@@ -1250,15 +1288,15 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="8" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="11" t="s">
         <v>3</v>
       </c>
       <c r="D6" s="5" t="s">
@@ -1266,7 +1304,7 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="11" t="s">
         <v>4</v>
       </c>
       <c r="D7" s="5" t="s">
@@ -1274,40 +1312,40 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="10" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="E10" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="12" t="s">
+      <c r="F10" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="12" t="s">
+      <c r="G10" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="H10" s="12" t="s">
+      <c r="H10" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I10" s="12" t="s">
+      <c r="I10" s="11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="191.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="6">
         <v>1</v>
@@ -1315,28 +1353,40 @@
       <c r="C11" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="E11" s="7"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="10"/>
+      <c r="E11" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>84</v>
+      </c>
       <c r="H11" s="3"/>
       <c r="I11" s="4"/>
     </row>
-    <row r="12" spans="1:9" ht="213" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="165.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="6">
         <v>2</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="E12" s="7"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="10"/>
+      <c r="E12" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>86</v>
+      </c>
       <c r="H12" s="3"/>
       <c r="I12" s="4"/>
     </row>
@@ -1347,26 +1397,28 @@
       <c r="C13" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="E13" s="7"/>
-      <c r="F13" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="G13" s="10" t="s">
-        <v>68</v>
+      <c r="E13" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>87</v>
       </c>
       <c r="H13" s="3"/>
       <c r="I13" s="4"/>
     </row>
     <row r="14" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="13"/>
-      <c r="C14" s="14"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="13"/>
     </row>
     <row r="15" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="13"/>
-      <c r="C15" s="14"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="13"/>
     </row>
     <row r="16" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
@@ -1382,175 +1434,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I16"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="7.85546875" customWidth="1"/>
-    <col min="2" max="2" width="22.5703125" customWidth="1"/>
-    <col min="3" max="3" width="41.5703125" customWidth="1"/>
-    <col min="4" max="4" width="78.42578125" customWidth="1"/>
-    <col min="5" max="5" width="28" customWidth="1"/>
-    <col min="6" max="6" width="44.7109375" customWidth="1"/>
-    <col min="7" max="7" width="38.28515625" customWidth="1"/>
-    <col min="8" max="8" width="33" customWidth="1"/>
-    <col min="9" max="9" width="32.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-    </row>
-    <row r="4" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="H10" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="I10" s="12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="15">
-        <v>1</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="E11" s="7"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="4"/>
-    </row>
-    <row r="12" spans="1:9" ht="213" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="15">
-        <v>2</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="E12" s="7"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="4"/>
-    </row>
-    <row r="13" spans="1:9" ht="186.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="15">
-        <v>3</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="E13" s="7"/>
-      <c r="F13" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="G13" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="H13" s="3"/>
-      <c r="I13" s="4"/>
-    </row>
-    <row r="14" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="13"/>
-      <c r="C14" s="14"/>
-    </row>
-    <row r="15" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="13"/>
-      <c r="C15" s="14"/>
-    </row>
-    <row r="16" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="D2:G2"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:I16"/>
-  <sheetViews>
-    <sheetView topLeftCell="C10" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C13" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
@@ -1570,15 +1454,15 @@
     <row r="2" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
     </row>
     <row r="4" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="11" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="5">
@@ -1586,23 +1470,23 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C6" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
     <row r="7" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="11" t="s">
         <v>4</v>
       </c>
       <c r="D7" s="5" t="s">
@@ -1610,36 +1494,36 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="11" t="s">
-        <v>70</v>
+      <c r="D8" s="10" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="E10" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="12" t="s">
+      <c r="F10" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="12" t="s">
+      <c r="G10" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="H10" s="12" t="s">
+      <c r="H10" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I10" s="12" t="s">
+      <c r="I10" s="11" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1649,17 +1533,19 @@
         <v>1</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="D11" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="D11" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="E11" s="7"/>
-      <c r="F11" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>82</v>
+      <c r="E11" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>80</v>
       </c>
       <c r="H11" s="3"/>
       <c r="I11" s="4"/>
@@ -1669,17 +1555,19 @@
         <v>2</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="D12" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="D12" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="E12" s="7"/>
-      <c r="F12" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="G12" s="10" t="s">
-        <v>78</v>
+      <c r="E12" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>76</v>
       </c>
       <c r="H12" s="3"/>
       <c r="I12" s="4"/>
@@ -1689,17 +1577,19 @@
         <v>3</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="D13" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="D13" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="E13" s="7"/>
-      <c r="F13" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="G13" s="10" t="s">
-        <v>83</v>
+      <c r="E13" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>88</v>
       </c>
       <c r="H13" s="3"/>
       <c r="I13" s="4"/>
@@ -1709,24 +1599,26 @@
         <v>3</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="D14" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="D14" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="E14" s="7"/>
-      <c r="F14" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="G14" s="10" t="s">
-        <v>80</v>
+      <c r="E14" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>78</v>
       </c>
       <c r="H14" s="3"/>
       <c r="I14" s="4"/>
     </row>
     <row r="15" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="13"/>
-      <c r="C15" s="14"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="13"/>
     </row>
     <row r="16" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
